--- a/src/main/resources/CompilerDictionary/LocatorDictionary/PricingPageLocator.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/PricingPageLocator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78DA0F2-0A29-443A-8250-4B7808D70C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3BFAAE-48EB-E748-98C7-8A89A8D39B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99859D05-4241-4989-842C-12B84A12C2F6}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{99859D05-4241-4989-842C-12B84A12C2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Sno</t>
   </si>
@@ -207,13 +207,22 @@
   </si>
   <si>
     <t>PricingPage_Label_PrivacyConsent</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +250,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,21 +619,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2AAE91-DC68-4F89-8CFC-1B0AC815B094}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A21" sqref="A21:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="73.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +644,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -637,8 +658,11 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -648,8 +672,11 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -659,8 +686,11 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -670,8 +700,11 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -681,8 +714,11 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -692,8 +728,11 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -703,8 +742,11 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -714,8 +756,11 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -725,8 +770,11 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -736,8 +784,11 @@
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -747,8 +798,11 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -758,8 +812,11 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -769,8 +826,11 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -780,8 +840,11 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -791,8 +854,11 @@
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -802,8 +868,11 @@
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -813,8 +882,11 @@
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -824,8 +896,11 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -835,8 +910,11 @@
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -846,8 +924,11 @@
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -857,54 +938,92 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
